--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF11443-A3B3-4E8B-9B01-20057FC1E610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F184B3-7A18-4279-8DAF-D34F706A511C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>pri111111223</t>
-  </si>
-  <si>
-    <t>reddw3</t>
+    <t>pri1111112232</t>
+  </si>
+  <si>
+    <t>reddw32</t>
   </si>
 </sst>
 </file>

--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F184B3-7A18-4279-8DAF-D34F706A511C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139BB2E6-9A2D-4B06-BB1F-3343BC268E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>pri1111112232</t>
-  </si>
-  <si>
-    <t>reddw32</t>
+    <t>chi12</t>
+  </si>
+  <si>
+    <t>reddw321</t>
   </si>
 </sst>
 </file>

--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139BB2E6-9A2D-4B06-BB1F-3343BC268E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1931BB-D412-4EBC-8D8F-05F32FBE7232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>chi12</t>
-  </si>
-  <si>
-    <t>reddw321</t>
+    <t>chi1232</t>
+  </si>
+  <si>
+    <t>reddw32132</t>
   </si>
 </sst>
 </file>

--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1931BB-D412-4EBC-8D8F-05F32FBE7232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34FB3A3-8937-44E6-A011-F60EE0105430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>chi1232</t>
-  </si>
-  <si>
-    <t>reddw32132</t>
+    <t>chi1232q</t>
+  </si>
+  <si>
+    <t>reddw32132q</t>
   </si>
 </sst>
 </file>

--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34FB3A3-8937-44E6-A011-F60EE0105430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9D4723-B9A7-42A7-81A0-9409C3A9C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>chi1232q</t>
-  </si>
-  <si>
-    <t>reddw32132q</t>
+    <t>chi1232q1</t>
+  </si>
+  <si>
+    <t>reddw32132q1</t>
   </si>
 </sst>
 </file>

--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9D4723-B9A7-42A7-81A0-9409C3A9C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD37226-15BD-4103-9D4C-CEF2E0DCE290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>chi1232q1</t>
-  </si>
-  <si>
-    <t>reddw32132q1</t>
+    <t>chi1232q11</t>
+  </si>
+  <si>
+    <t>reddw32132q12</t>
   </si>
 </sst>
 </file>

--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD37226-15BD-4103-9D4C-CEF2E0DCE290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E7B39D-0254-4295-82A9-ECA073105853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>chi1232q11</t>
-  </si>
-  <si>
-    <t>reddw32132q12</t>
+    <t>chi1232q113</t>
+  </si>
+  <si>
+    <t>reddw3213q12</t>
   </si>
 </sst>
 </file>

--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E7B39D-0254-4295-82A9-ECA073105853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5667268A-1DF2-4D33-AF92-2D84696365C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>chi1232q113</t>
-  </si>
-  <si>
-    <t>reddw3213q12</t>
+    <t>chi1232q11311</t>
+  </si>
+  <si>
+    <t>reddw3221</t>
   </si>
 </sst>
 </file>

--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5667268A-1DF2-4D33-AF92-2D84696365C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A51B7-0F4C-4B0A-AC44-14BB0B187386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>chi1232q11311</t>
-  </si>
-  <si>
-    <t>reddw3221</t>
+    <t>chi111</t>
+  </si>
+  <si>
+    <t>reddw3</t>
   </si>
 </sst>
 </file>

--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A51B7-0F4C-4B0A-AC44-14BB0B187386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF819028-7766-4E45-918D-EDEB33627C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>chi111</t>
-  </si>
-  <si>
-    <t>reddw3</t>
+    <t>chi11</t>
+  </si>
+  <si>
+    <t>reddw</t>
   </si>
 </sst>
 </file>

--- a/TestData/chidu.xlsx
+++ b/TestData/chidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\new ide\Priyanka_QSP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF819028-7766-4E45-918D-EDEB33627C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E8C15-F6AE-4524-9470-2724432FC621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>monkey</t>
   </si>
   <si>
-    <t>chi11</t>
-  </si>
-  <si>
-    <t>reddw</t>
+    <t>chi11111</t>
+  </si>
+  <si>
+    <t>reddw111</t>
   </si>
 </sst>
 </file>
